--- a/examples/sources/data/unsolved/to_schedule/2019-03-22.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-22.xlsx
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>43546</v>
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -5970,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O117" s="2">
         <v>43546</v>
@@ -6380,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="N127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127" s="2">
         <v>43546</v>
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -6544,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O131" s="2">
         <v>43546</v>
@@ -6585,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O132" s="2">
         <v>43546</v>
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N136">
         <v>1</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="N149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O149" s="2">
         <v>43546</v>
@@ -7329,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -7742,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="N160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O160" s="2">
         <v>43546</v>
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N182">
         <v>1</v>
